--- a/conf/resources/orchestra-tax-relief-template.xlsx
+++ b/conf/resources/orchestra-tax-relief-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmrc.sharepoint.com/teams/GRP042118873/Creative Industries/Creatives Reform 2022/IT Project/Stencils/Existing reliefs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{858776B7-7516-43BB-AAA5-0D697CF3C20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA0EB67-F566-47F7-A88D-BD006074E280}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{858776B7-7516-43BB-AAA5-0D697CF3C20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59D11713-DE4E-4575-99A3-9692D558BAE2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="638" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1616,6 +1616,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
@@ -1633,6 +1683,15 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1683,65 +1742,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1749,32 +1749,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2252,6 +2226,32 @@
         </patternFill>
       </fill>
       <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2344,21 +2344,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:B6" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:B6" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
   <autoFilter ref="A5:B6" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Total Income" totalsRowLabel="Total" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Income of which is a State Aid" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Total Income" totalsRowLabel="Total" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Income of which is a State Aid" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A7:H57" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A7:H57" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16">
   <autoFilter ref="A7:H56" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2370,18 +2370,18 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Expenditure" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total expenditure" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Non Core Expenditure" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total Core Expenditure" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Total UK/EEA Core Expenditure" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Total Non UK/EEA Core Expenditure" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Expenditure" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total expenditure" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Non Core Expenditure" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total Core Expenditure" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Total UK/EEA Core Expenditure" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Total Non UK/EEA Core Expenditure" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUM(Table2[Total Non UK/EEA Core Expenditure])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Apportionment basis " totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Apportionment basis " totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUM(Table2[[Apportionment basis ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Comments" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Comments" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2753,16 +2753,16 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
       <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2817,16 +2817,16 @@
       <c r="H11" s="34"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:10" s="130" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="129"/>
+    <row r="12" spans="1:10" s="107" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="104"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="106"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31"/>
@@ -2929,8 +2929,8 @@
   </sheetPr>
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2947,39 +2947,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="124"/>
       <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="130"/>
       <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
       <c r="D3" s="62"/>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
@@ -3047,7 +3047,7 @@
       <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="113" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="78" t="s">
@@ -3065,7 +3065,7 @@
       <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="78" t="s">
         <v>34</v>
       </c>
@@ -3081,7 +3081,7 @@
       <c r="J8" s="61"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="95"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="78" t="s">
         <v>36</v>
       </c>
@@ -3097,7 +3097,7 @@
       <c r="J9" s="61"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="78" t="s">
         <v>38</v>
       </c>
@@ -3125,7 +3125,7 @@
       <c r="J10" s="61"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="78" t="s">
         <v>40</v>
       </c>
@@ -3137,19 +3137,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <f>SUM(F8-E10)</f>
+        <f t="shared" ref="E11:H11" si="0">SUM(E9-E10)</f>
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <f>SUM(F9-F10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <f>SUM(G9-G10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <f>SUM(H9-H10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="68" t="s">
@@ -3158,7 +3158,7 @@
       <c r="J11" s="61"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="95"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="78" t="s">
         <v>43</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="J12" s="61"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="78" t="s">
         <v>46</v>
       </c>
@@ -3219,7 +3219,7 @@
       <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="95"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="78" t="s">
         <v>48</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="J14" s="61"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="95"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="78" t="s">
         <v>51</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="J15" s="61"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="95"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="78" t="s">
         <v>54</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="114" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="78" t="s">
@@ -3321,7 +3321,7 @@
       <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="97"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="78" t="s">
         <v>60</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="97"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="78" t="s">
         <v>62</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
+      <c r="A20" s="115"/>
       <c r="B20" s="78" t="s">
         <v>64</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="J20" s="61"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="97"/>
+      <c r="A21" s="115"/>
       <c r="B21" s="78" t="s">
         <v>66</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="J21" s="61"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="97"/>
+      <c r="A22" s="115"/>
       <c r="B22" s="78" t="s">
         <v>69</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="J22" s="61"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="97"/>
+      <c r="A23" s="115"/>
       <c r="B23" s="78" t="s">
         <v>72</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="J23" s="61"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="97"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="78" t="s">
         <v>73</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="J24" s="61"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="97"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="78" t="s">
         <v>74</v>
       </c>
@@ -3523,13 +3523,13 @@
         <f>SUM(H23-H24)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="125" t="s">
+      <c r="I25" s="102" t="s">
         <v>189</v>
       </c>
       <c r="J25" s="61"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="97"/>
+      <c r="A26" s="115"/>
       <c r="B26" s="78" t="s">
         <v>75</v>
       </c>
@@ -3556,19 +3556,19 @@
         <f>SUM(H16-H25)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="125" t="s">
+      <c r="I26" s="102" t="s">
         <v>188</v>
       </c>
       <c r="J26" s="61"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="123" t="s">
+      <c r="A27" s="116" t="s">
         <v>187</v>
       </c>
       <c r="B27" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="C27" s="126" t="s">
+      <c r="C27" s="103" t="s">
         <v>67</v>
       </c>
       <c r="D27" s="2">
@@ -3595,11 +3595,11 @@
       <c r="J27" s="61"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="123"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="101" t="s">
         <v>184</v>
       </c>
       <c r="D28" s="2"/>
@@ -3623,11 +3623,11 @@
       <c r="J28" s="61"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="123"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="100" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="2">
@@ -3656,11 +3656,11 @@
       <c r="J29" s="61"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="123"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="102" t="s">
         <v>76</v>
       </c>
       <c r="D30" s="1"/>
@@ -3672,11 +3672,11 @@
       <c r="J30" s="61"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="123"/>
+      <c r="A31" s="116"/>
       <c r="B31" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="124" t="s">
+      <c r="C31" s="101" t="s">
         <v>77</v>
       </c>
       <c r="D31" s="1"/>
@@ -3700,11 +3700,11 @@
       <c r="J31" s="61"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="123"/>
+      <c r="A32" s="116"/>
       <c r="B32" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="101" t="s">
         <v>78</v>
       </c>
       <c r="D32" s="2">
@@ -3733,11 +3733,11 @@
       <c r="J32" s="61"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="123"/>
+      <c r="A33" s="116"/>
       <c r="B33" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="122" t="s">
+      <c r="C33" s="100" t="s">
         <v>175</v>
       </c>
       <c r="D33" s="2">
@@ -3766,11 +3766,11 @@
       <c r="J33" s="61"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="123"/>
+      <c r="A34" s="116"/>
       <c r="B34" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="125" t="s">
+      <c r="C34" s="102" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="2">
@@ -3797,11 +3797,11 @@
       <c r="J34" s="61"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="123"/>
+      <c r="A35" s="116"/>
       <c r="B35" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="124" t="s">
+      <c r="C35" s="101" t="s">
         <v>171</v>
       </c>
       <c r="D35" s="2"/>
@@ -3825,11 +3825,11 @@
       <c r="J35" s="61"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="123"/>
+      <c r="A36" s="116"/>
       <c r="B36" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="122" t="s">
+      <c r="C36" s="100" t="s">
         <v>169</v>
       </c>
       <c r="D36" s="2">
@@ -3858,10 +3858,10 @@
       <c r="J36" s="61"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="119" t="s">
+      <c r="A37" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="99" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="80" t="s">
@@ -3878,7 +3878,7 @@
       <c r="J37" s="61"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="119"/>
+      <c r="A38" s="117"/>
       <c r="B38" s="78" t="s">
         <v>88</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="J38" s="61"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="119"/>
+      <c r="A39" s="117"/>
       <c r="B39" s="78" t="s">
         <v>90</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="J39" s="61"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="119"/>
+      <c r="A40" s="117"/>
       <c r="B40" s="78" t="s">
         <v>92</v>
       </c>
@@ -3969,15 +3969,15 @@
       <c r="J40" s="61"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="119"/>
+      <c r="A41" s="117"/>
       <c r="B41" s="78" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -3987,7 +3987,7 @@
       <c r="J41" s="61"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="119"/>
+      <c r="A42" s="117"/>
       <c r="B42" s="81" t="s">
         <v>97</v>
       </c>
@@ -4003,15 +4003,15 @@
         <v>0</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" ref="F42:H42" si="0">SUM(F41*0.25)</f>
+        <f t="shared" ref="F42:H42" si="1">SUM(F41*0.25)</f>
         <v>0</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I42" s="68" t="s">
@@ -4020,7 +4020,7 @@
       <c r="J42" s="61"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="119"/>
+      <c r="A43" s="117"/>
       <c r="B43" s="82" t="s">
         <v>98</v>
       </c>
@@ -4032,19 +4032,19 @@
         <v>0</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" ref="E43:H43" si="1">SUM(E41*0.5)</f>
+        <f t="shared" ref="E43:H43" si="2">SUM(E41*0.5)</f>
         <v>0</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I43" s="68" t="s">
@@ -4052,7 +4052,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="119"/>
+      <c r="A44" s="117"/>
       <c r="B44" s="84" t="s">
         <v>99</v>
       </c>
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" ref="E44:H44" si="2">SUM(E41*0.35)</f>
+        <f t="shared" ref="E44:H44" si="3">SUM(E41*0.35)</f>
         <v>0</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="68" t="s">
@@ -4091,23 +4091,23 @@
       <c r="C45" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="117">
+      <c r="D45" s="97">
         <f>IF(AND(D4&gt;=$D$63,D4&lt;=$E$63),D43,IF(AND(D4&gt;=$D$64,D4&lt;=$E$64),D44,D42))</f>
         <v>0</v>
       </c>
-      <c r="E45" s="117">
+      <c r="E45" s="97">
         <f>IF(AND(E4&gt;=$D$63,E4&lt;=$E$63),E43,IF(AND(E4&gt;=$D$64,E4&lt;=$E$64),E44,E42))</f>
         <v>0</v>
       </c>
-      <c r="F45" s="117">
+      <c r="F45" s="97">
         <f>IF(AND(F4&gt;=$D$63,F4&lt;=$E$63),F43,IF(AND(F4&gt;=$D$64,F4&lt;=$E$64),F44,F42))</f>
         <v>0</v>
       </c>
-      <c r="G45" s="117">
+      <c r="G45" s="97">
         <f>IF(AND(G4&gt;=$D$63,G4&lt;=$E$63),G43,IF(AND(G4&gt;=$D$64,G4&lt;=$E$64),G44,G42))</f>
         <v>0</v>
       </c>
-      <c r="H45" s="117">
+      <c r="H45" s="97">
         <f>IF(AND(H4&gt;=$D$63,H4&lt;=$E$63),H43,IF(AND(H4&gt;=$D$64,H4&lt;=$E$64),H44,H42))</f>
         <v>0</v>
       </c>
@@ -4116,158 +4116,158 @@
       </c>
     </row>
     <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="116"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="113"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="93"/>
     </row>
     <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="116"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="113"/>
+      <c r="A47" s="96"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="93"/>
     </row>
     <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="116"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="114"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="113"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="93"/>
     </row>
     <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="116"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="113"/>
+      <c r="A49" s="96"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="93"/>
     </row>
     <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="116"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="113"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="93"/>
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="116"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="113"/>
+      <c r="A51" s="96"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="93"/>
     </row>
     <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="116"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="113"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="93"/>
     </row>
     <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="116"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="113"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="93"/>
     </row>
     <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="116"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="113"/>
+      <c r="A54" s="96"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="93"/>
     </row>
     <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="116"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="114"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="113"/>
+      <c r="A55" s="96"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="94"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="93"/>
     </row>
     <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="116"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="113"/>
+      <c r="A56" s="96"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="93"/>
     </row>
     <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="116"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="114"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="113"/>
+      <c r="A57" s="96"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="93"/>
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="116"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="113"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="93"/>
     </row>
     <row r="59" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="131"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="132"/>
-      <c r="D59" s="133"/>
-      <c r="E59" s="133"/>
-      <c r="F59" s="133"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="132"/>
+      <c r="A59" s="108"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="109"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="88"/>
@@ -4443,35 +4443,35 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+41TI63qwNZGnq3tNd8ZcgBEYdoB3PlVKNE/hJZYdfaKeav2QzpNYNUOSje/KLOcGV+ZYaqGVEHy7h4Bx0ryeg==" saltValue="iqVQ4O6eEd+i64rlpYTXZg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z8+LQMAVYjyP9yGW21FGRSGaNtIV0qNsEZNbHCVloh9GliOzr+7dNarv6IVu4ExBP9yXohzpMXpMBnjDKt7R/g==" saltValue="a9ikzwHHistuI3uoIyNOSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A7:A16"/>
     <mergeCell ref="A17:A26"/>
     <mergeCell ref="A27:A36"/>
     <mergeCell ref="A37:A45"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:H12">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:H12 D14:H14 D16:H16 D26:H26 D38:H38 D40:H40">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5299,12 +5299,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="TEd5otnfbToqZntXixFMLhXmfsM7oB8OxYTvMmjBxmrjAki6+doeIrmPrTE2WjyvV6IlHlXyxugTQA5fc1YhAA==" saltValue="5Y48aQ6c1tNEujtWIq7CUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0"/>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="notEqual">
       <formula>$B$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="notEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5325,23 +5325,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100350E8E2BB23E2A4AA4EA2615525F2B5A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="196d710fa02d7b8454006001c59ff208">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e4bfe8b-ef84-4e47-853e-31313f64a53a" xmlns:ns3="7058508a-d375-4a1e-a567-7dd1bee321db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2dd5f73807ecc01be09f0551dd16e5ff" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100350E8E2BB23E2A4AA4EA2615525F2B5A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faf6ce0b471c2bc8070abc50707ce808">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e4bfe8b-ef84-4e47-853e-31313f64a53a" xmlns:ns3="7058508a-d375-4a1e-a567-7dd1bee321db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05a7eebf91a8b30bc57d75cce2ce92d5" ns2:_="" ns3:_="">
     <xsd:import namespace="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
     <xsd:import namespace="7058508a-d375-4a1e-a567-7dd1bee321db"/>
     <xsd:element name="properties">
@@ -5357,6 +5342,7 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5392,6 +5378,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5524,21 +5515,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD92D31-A5A2-4127-86E0-785EAA7B35DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DEF441-1FC8-435E-AF60-E1347535D48D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5550,20 +5543,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8164A499-1C20-45CC-827C-87AC534EE5E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD92D31-A5A2-4127-86E0-785EAA7B35DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
-    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/conf/resources/orchestra-tax-relief-template.xlsx
+++ b/conf/resources/orchestra-tax-relief-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmrc.sharepoint.com/teams/GRP042118873/Creative Industries/Creatives Reform 2022/IT Project/Stencils/Existing reliefs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{858776B7-7516-43BB-AAA5-0D697CF3C20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59D11713-DE4E-4575-99A3-9692D558BAE2}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="8_{858776B7-7516-43BB-AAA5-0D697CF3C20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{659D83C9-924B-4C1D-8132-DC84F3828AD2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="638" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11856" yWindow="12852" windowWidth="23256" windowHeight="12576" tabRatio="638" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orchestra Tax Relief Stencil" sheetId="2" r:id="rId1"/>
@@ -1674,33 +1674,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1742,6 +1715,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2929,8 +2929,8 @@
   </sheetPr>
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2947,39 +2947,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="124"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
       <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="130"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="121"/>
       <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="133"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
       <c r="D3" s="62"/>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
@@ -3047,7 +3047,7 @@
       <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="125" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="78" t="s">
@@ -3065,7 +3065,7 @@
       <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="113"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="78" t="s">
         <v>34</v>
       </c>
@@ -3081,7 +3081,7 @@
       <c r="J8" s="61"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="113"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="78" t="s">
         <v>36</v>
       </c>
@@ -3097,7 +3097,7 @@
       <c r="J9" s="61"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="113"/>
+      <c r="A10" s="125"/>
       <c r="B10" s="78" t="s">
         <v>38</v>
       </c>
@@ -3125,7 +3125,7 @@
       <c r="J10" s="61"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
+      <c r="A11" s="125"/>
       <c r="B11" s="78" t="s">
         <v>40</v>
       </c>
@@ -3158,7 +3158,7 @@
       <c r="J11" s="61"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
+      <c r="A12" s="125"/>
       <c r="B12" s="78" t="s">
         <v>43</v>
       </c>
@@ -3170,19 +3170,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <f>IFERROR(SUM(F8/E8*E7),0)</f>
+        <f t="shared" ref="E12:H12" si="1">IFERROR(SUM(E9/E8*E7),0)</f>
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <f>IFERROR(SUM(F9/#REF!*F7),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <f>IFERROR(SUM(G9/G8*G7),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <f>IFERROR(SUM(H9/H8*H7),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="68" t="s">
@@ -3191,7 +3191,7 @@
       <c r="J12" s="61"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="113"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="78" t="s">
         <v>46</v>
       </c>
@@ -3219,7 +3219,7 @@
       <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="113"/>
+      <c r="A14" s="125"/>
       <c r="B14" s="78" t="s">
         <v>48</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="J14" s="61"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="113"/>
+      <c r="A15" s="125"/>
       <c r="B15" s="78" t="s">
         <v>51</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="J15" s="61"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="113"/>
+      <c r="A16" s="125"/>
       <c r="B16" s="78" t="s">
         <v>54</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="126" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="78" t="s">
@@ -3321,7 +3321,7 @@
       <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="115"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="78" t="s">
         <v>60</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="115"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="78" t="s">
         <v>62</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="115"/>
+      <c r="A20" s="127"/>
       <c r="B20" s="78" t="s">
         <v>64</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="J20" s="61"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="115"/>
+      <c r="A21" s="127"/>
       <c r="B21" s="78" t="s">
         <v>66</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="J21" s="61"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="115"/>
+      <c r="A22" s="127"/>
       <c r="B22" s="78" t="s">
         <v>69</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="J22" s="61"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="115"/>
+      <c r="A23" s="127"/>
       <c r="B23" s="78" t="s">
         <v>72</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="J23" s="61"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="115"/>
+      <c r="A24" s="127"/>
       <c r="B24" s="78" t="s">
         <v>73</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="J24" s="61"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="115"/>
+      <c r="A25" s="127"/>
       <c r="B25" s="78" t="s">
         <v>74</v>
       </c>
@@ -3529,7 +3529,7 @@
       <c r="J25" s="61"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="115"/>
+      <c r="A26" s="127"/>
       <c r="B26" s="78" t="s">
         <v>75</v>
       </c>
@@ -3562,7 +3562,7 @@
       <c r="J26" s="61"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="128" t="s">
         <v>187</v>
       </c>
       <c r="B27" s="78" t="s">
@@ -3595,7 +3595,7 @@
       <c r="J27" s="61"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="116"/>
+      <c r="A28" s="128"/>
       <c r="B28" s="78" t="s">
         <v>185</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="J28" s="61"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="116"/>
+      <c r="A29" s="128"/>
       <c r="B29" s="78" t="s">
         <v>183</v>
       </c>
@@ -3656,7 +3656,7 @@
       <c r="J29" s="61"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="116"/>
+      <c r="A30" s="128"/>
       <c r="B30" s="78" t="s">
         <v>180</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="J30" s="61"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="116"/>
+      <c r="A31" s="128"/>
       <c r="B31" s="78" t="s">
         <v>179</v>
       </c>
@@ -3700,7 +3700,7 @@
       <c r="J31" s="61"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="116"/>
+      <c r="A32" s="128"/>
       <c r="B32" s="78" t="s">
         <v>178</v>
       </c>
@@ -3733,7 +3733,7 @@
       <c r="J32" s="61"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="116"/>
+      <c r="A33" s="128"/>
       <c r="B33" s="78" t="s">
         <v>176</v>
       </c>
@@ -3766,7 +3766,7 @@
       <c r="J33" s="61"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="116"/>
+      <c r="A34" s="128"/>
       <c r="B34" s="78" t="s">
         <v>173</v>
       </c>
@@ -3797,7 +3797,7 @@
       <c r="J34" s="61"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="116"/>
+      <c r="A35" s="128"/>
       <c r="B35" s="78" t="s">
         <v>172</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="J35" s="61"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="116"/>
+      <c r="A36" s="128"/>
       <c r="B36" s="78" t="s">
         <v>170</v>
       </c>
@@ -3858,7 +3858,7 @@
       <c r="J36" s="61"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="129" t="s">
         <v>84</v>
       </c>
       <c r="B37" s="99" t="s">
@@ -3878,7 +3878,7 @@
       <c r="J37" s="61"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="117"/>
+      <c r="A38" s="129"/>
       <c r="B38" s="78" t="s">
         <v>88</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="J38" s="61"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="117"/>
+      <c r="A39" s="129"/>
       <c r="B39" s="78" t="s">
         <v>90</v>
       </c>
@@ -3939,14 +3939,17 @@
       <c r="J39" s="61"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="117"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="78" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4">
+        <f>MIN(D23-D39, ABS(D38))</f>
+        <v>0</v>
+      </c>
       <c r="E40" s="4">
         <f>MIN(E23-E39, ABS(E38))</f>
         <v>0</v>
@@ -3969,7 +3972,7 @@
       <c r="J40" s="61"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="117"/>
+      <c r="A41" s="129"/>
       <c r="B41" s="78" t="s">
         <v>94</v>
       </c>
@@ -3987,7 +3990,7 @@
       <c r="J41" s="61"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="117"/>
+      <c r="A42" s="129"/>
       <c r="B42" s="81" t="s">
         <v>97</v>
       </c>
@@ -4003,15 +4006,15 @@
         <v>0</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" ref="F42:H42" si="1">SUM(F41*0.25)</f>
+        <f t="shared" ref="F42:H42" si="2">SUM(F41*0.25)</f>
         <v>0</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I42" s="68" t="s">
@@ -4020,7 +4023,7 @@
       <c r="J42" s="61"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="117"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="82" t="s">
         <v>98</v>
       </c>
@@ -4032,19 +4035,19 @@
         <v>0</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" ref="E43:H43" si="2">SUM(E41*0.5)</f>
+        <f t="shared" ref="E43:H43" si="3">SUM(E41*0.5)</f>
         <v>0</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="68" t="s">
@@ -4052,7 +4055,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="117"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="84" t="s">
         <v>99</v>
       </c>
@@ -4064,19 +4067,19 @@
         <v>0</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" ref="E44:H44" si="3">SUM(E41*0.35)</f>
+        <f t="shared" ref="E44:H44" si="4">SUM(E41*0.35)</f>
         <v>0</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I44" s="68" t="s">
@@ -4084,7 +4087,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="118"/>
+      <c r="A45" s="130"/>
       <c r="B45" s="85" t="s">
         <v>100</v>
       </c>
@@ -4443,24 +4446,24 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z8+LQMAVYjyP9yGW21FGRSGaNtIV0qNsEZNbHCVloh9GliOzr+7dNarv6IVu4ExBP9yXohzpMXpMBnjDKt7R/g==" saltValue="a9ikzwHHistuI3uoIyNOSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DTOxZy2eHIToZ0FyU3TCno0Lo+UGofPbVMMuLAOGBCl6sp0YSpD0c54S8IjGXSNWL1quljBCAO/lo9/TXeMY8g==" saltValue="NI1FySBDD0P+/PkgXWXp+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A7:A16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:H12">
     <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:H12 D14:H14 D16:H16 D26:H26 D38:H38 D40:H40">
+  <conditionalFormatting sqref="D14:H14 D16:H16 D26:H26 D38:H38 D12:H12 D40:H40">
     <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5325,6 +5328,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100350E8E2BB23E2A4AA4EA2615525F2B5A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faf6ce0b471c2bc8070abc50707ce808">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e4bfe8b-ef84-4e47-853e-31313f64a53a" xmlns:ns3="7058508a-d375-4a1e-a567-7dd1bee321db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05a7eebf91a8b30bc57d75cce2ce92d5" ns2:_="" ns3:_="">
     <xsd:import namespace="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
@@ -5515,23 +5533,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DEF441-1FC8-435E-AF60-E1347535D48D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD92D31-A5A2-4127-86E0-785EAA7B35DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5543,18 +5559,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD92D31-A5A2-4127-86E0-785EAA7B35DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DEF441-1FC8-435E-AF60-E1347535D48D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
+    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/conf/resources/orchestra-tax-relief-template.xlsx
+++ b/conf/resources/orchestra-tax-relief-template.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmrc-my.sharepoint.com/personal/peter_atkins_hmrc_gov_uk/Documents/IGR/Creatives/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7209376\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{25EBBEDA-00DE-4E6B-AD30-DEAD91405A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F02A7973-21A5-4304-9A98-4AB6311F863F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483772CD-91C1-49E0-A8DF-63D4F742D920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="47IdQFAXFzHOuI9nuU6Rla5iJPgqINohdWJRpW7dY9L+OOPfPhrNKZwNd8S+diSAT0kdBLuGCoJmua/doxerFw==" workbookSaltValue="C06aWO+FY9h5lPuPAP7g/Q==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" tabRatio="638" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="638" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orchestra Tax Relief Stencil" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="206">
   <si>
     <t>Orchestra Tax Relief Stencil</t>
   </si>
@@ -112,6 +112,9 @@
     <t>Orchestra Production</t>
   </si>
   <si>
+    <t>Accounting period start date</t>
+  </si>
+  <si>
     <t>Accounting period end (APE)</t>
   </si>
   <si>
@@ -122,9 +125,6 @@
   </si>
   <si>
     <t>Period 1</t>
-  </si>
-  <si>
-    <t>Period 2</t>
   </si>
   <si>
     <t>Period 3</t>
@@ -425,6 +425,9 @@
     <t>TC6.1</t>
   </si>
   <si>
+    <t>Orchestra tax credit Production start date before 27/10/2021</t>
+  </si>
+  <si>
     <t>25% of TC5</t>
   </si>
   <si>
@@ -440,6 +443,12 @@
     <t>TC6.3</t>
   </si>
   <si>
+    <t>Orchestra tax credit Productions From 01/04/25</t>
+  </si>
+  <si>
+    <t>45% of TC5</t>
+  </si>
+  <si>
     <t>TC6.4</t>
   </si>
   <si>
@@ -455,12 +464,39 @@
     <t>You can find more information regarding how to calculate the relief here https://www.gov.uk/hmrc-internal-manuals/orchestra-tax-relief/otr70000</t>
   </si>
   <si>
+    <t>NB 2</t>
+  </si>
+  <si>
+    <t>If your accounting period straddles 27/10/2021 or 01/04/2025, you should treat it as two notional accounting periods in this spreadsheet: the first up to that date and the second from that date.</t>
+  </si>
+  <si>
+    <t>You should apportion expenditure between the two notional periods.</t>
+  </si>
+  <si>
+    <t>NB 3</t>
+  </si>
+  <si>
+    <t>If your company has unpaid amounts brought forward, they must receive tax credit at the rate that applied in the accounting period in which they were incurred. You may have to calculate this separately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTR &amp; MGETR  </t>
+  </si>
+  <si>
     <t>Touring</t>
   </si>
   <si>
     <t>None Touring</t>
   </si>
   <si>
+    <t>production phase date</t>
+  </si>
+  <si>
+    <t>Accoutning Period</t>
+  </si>
+  <si>
+    <t>Onward</t>
+  </si>
+  <si>
     <t>OTR</t>
   </si>
   <si>
@@ -633,52 +669,13 @@
   </si>
   <si>
     <t>NB: Expenditure not paid within 4 months of the accounting period end cannot be included in the claim.</t>
-  </si>
-  <si>
-    <t>Orchestra tax credit Production start date before 27/10/2021</t>
-  </si>
-  <si>
-    <t>Orchestra tax credit Productions From 01/04/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTR &amp; MGETR  </t>
-  </si>
-  <si>
-    <t>production phase date</t>
-  </si>
-  <si>
-    <t>Accoutning Period</t>
-  </si>
-  <si>
-    <t>Onward</t>
-  </si>
-  <si>
-    <t>45% of TC5</t>
-  </si>
-  <si>
-    <t>Accounting period start date</t>
-  </si>
-  <si>
-    <t>NB 2</t>
-  </si>
-  <si>
-    <t>If your accounting period straddles 27/10/2021 or 01/04/2025, you should treat it as two notional accounting periods in this spreadsheet: the first up to that date and the second from that date.</t>
-  </si>
-  <si>
-    <t>You should apportion expenditure between the two notional periods.</t>
-  </si>
-  <si>
-    <t>NB 3</t>
-  </si>
-  <si>
-    <t>If your company has unpaid amounts brought forward, they must receive tax credit at the rate that applied in the accounting period in which they were incurred. You may have to calculate this separately.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,8 +774,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,8 +849,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1042,49 +1064,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1371,7 +1350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1414,7 +1393,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1433,22 +1412,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1506,36 +1482,23 @@
     <xf numFmtId="2" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1552,7 +1515,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
@@ -1566,13 +1529,13 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1590,10 +1553,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1646,16 +1609,38 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="13" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="4" fontId="13" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1670,7 +1655,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1682,17 +1667,17 @@
       <alignment horizontal="center" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,70 +1689,70 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1790,42 +1775,21 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="13" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2478,6 +2442,29 @@
       </fill>
       <protection locked="1" hidden="1"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2555,7 +2542,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Theatre Tax Relief Stencil"/>
@@ -2572,21 +2559,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:B6" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:B6" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
   <autoFilter ref="A5:B6" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Total Income" totalsRowLabel="Total" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Income of which is a State Aid" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Total Income" totalsRowLabel="Total" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Income of which is a State Aid" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A7:H57" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A7:H57" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16">
   <autoFilter ref="A7:H56" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2598,18 +2585,18 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Expenditure" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total expenditure" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Non Core Expenditure" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total Core Expenditure" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Total UK/EEA Core Expenditure" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Total Non UK/EEA Core Expenditure" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Expenditure" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total expenditure" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Non Core Expenditure" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total Core Expenditure" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Total UK/EEA Core Expenditure" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Total Non UK/EEA Core Expenditure" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUM(Table2[Total Non UK/EEA Core Expenditure])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Apportionment basis " totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Apportionment basis " totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUM(Table2[[Apportionment basis ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Comments" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Comments" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2900,139 +2887,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="A1" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
       <c r="I1" s="9"/>
       <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="121"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="77"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="77"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="77"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="77"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="71"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="82"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29"/>
@@ -3093,13 +3080,13 @@
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -3143,7 +3130,7 @@
   <dimension ref="A1:J328"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D2" sqref="D2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,97 +3143,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="132"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
       <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="138"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="139"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113"/>
+      <c r="A3" s="134" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="114"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
+      <c r="A4" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="62"/>
+      <c r="A5" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="110"/>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66" t="s">
+      <c r="A6" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="E6" s="62"/>
+      <c r="F6" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="65"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3270,66 +3255,66 @@
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="143" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="107"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
-      <c r="I8" s="92"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="142"/>
+      <c r="A9" s="143"/>
       <c r="B9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="92"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="142"/>
+      <c r="A10" s="143"/>
       <c r="B10" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="108"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="92"/>
+      <c r="I10" s="86"/>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="142"/>
+      <c r="A11" s="143"/>
       <c r="B11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="78" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="27">
-        <f>D12</f>
+        <f>D12+D11</f>
         <v>0</v>
       </c>
       <c r="F11" s="27">
@@ -3344,15 +3329,15 @@
         <f>G11+G12</f>
         <v>0</v>
       </c>
-      <c r="I11" s="92"/>
+      <c r="I11" s="86"/>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="142"/>
+      <c r="A12" s="143"/>
       <c r="B12" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="79" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="27">
@@ -3364,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="27">
-        <f t="shared" si="0"/>
+        <f>SUM(F10-F11)</f>
         <v>0</v>
       </c>
       <c r="G12" s="27">
@@ -3375,17 +3360,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="92" t="s">
+      <c r="I12" s="86" t="s">
         <v>43</v>
       </c>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="142"/>
+      <c r="A13" s="143"/>
       <c r="B13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="77" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="27">
@@ -3408,22 +3393,22 @@
         <f>IFERROR(SUM(H10/H9*H8),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="92" t="s">
+      <c r="I13" s="86" t="s">
         <v>46</v>
       </c>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="142"/>
+      <c r="A14" s="143"/>
       <c r="B14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="78" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="27">
-        <f>D15</f>
+        <f>D15+D14</f>
         <v>0</v>
       </c>
       <c r="F14" s="27">
@@ -3438,15 +3423,15 @@
         <f>G14+G15</f>
         <v>0</v>
       </c>
-      <c r="I14" s="92"/>
+      <c r="I14" s="86"/>
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="142"/>
+      <c r="A15" s="143"/>
       <c r="B15" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="79" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="27">
@@ -3469,17 +3454,17 @@
         <f>SUM(H13-H14)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="92" t="s">
+      <c r="I15" s="86" t="s">
         <v>51</v>
       </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="142"/>
+      <c r="A16" s="143"/>
       <c r="B16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="77" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26"/>
@@ -3487,17 +3472,17 @@
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
-      <c r="I16" s="92" t="s">
+      <c r="I16" s="86" t="s">
         <v>54</v>
       </c>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="142"/>
+      <c r="A17" s="143"/>
       <c r="B17" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="79" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="27">
@@ -3520,83 +3505,83 @@
         <f>SUM(H15-H12+H16)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="92" t="s">
+      <c r="I17" s="86" t="s">
         <v>57</v>
       </c>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="122" t="s">
+      <c r="A18" s="123" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="152"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="92"/>
+      <c r="I18" s="86"/>
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="123"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="153"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="92"/>
+      <c r="I19" s="86"/>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="123"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="153"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="92"/>
+      <c r="I20" s="86"/>
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="123"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21" s="154"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="92"/>
+      <c r="I21" s="86"/>
       <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="123"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="79" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="29">
@@ -3619,17 +3604,17 @@
         <f>SUM(H20+H21)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="92" t="s">
+      <c r="I22" s="86" t="s">
         <v>69</v>
       </c>
       <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="123"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="77" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="29">
@@ -3652,17 +3637,17 @@
         <f>SUM(H22*0.8)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="92" t="s">
+      <c r="I23" s="86" t="s">
         <v>72</v>
       </c>
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="123"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="79" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="29">
@@ -3685,17 +3670,17 @@
         <f>MIN(H20,H23)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="92" t="s">
+      <c r="I24" s="86" t="s">
         <v>75</v>
       </c>
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="123"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="78" t="s">
         <v>77</v>
       </c>
       <c r="D25" s="28"/>
@@ -3715,15 +3700,15 @@
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I25" s="92"/>
+      <c r="I25" s="86"/>
       <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="123"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="79" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="29">
@@ -3746,52 +3731,52 @@
         <f>SUM(H24-H25)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="89" t="s">
+      <c r="I26" s="83" t="s">
         <v>80</v>
       </c>
       <c r="J26" s="12"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="123"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="28">
         <f>SUM(D17-D26)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="28">
         <f>SUM(E17-E26)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="28">
         <f>SUM(F17-F26)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="28">
         <f>SUM(G17-G26)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="28">
         <f>SUM(H17-H26)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="89" t="s">
+      <c r="I27" s="83" t="s">
         <v>83</v>
       </c>
       <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="124" t="s">
+      <c r="A28" s="125" t="s">
         <v>84</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="80" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="27">
@@ -3814,18 +3799,18 @@
         <f>H22</f>
         <v>0</v>
       </c>
-      <c r="I28" s="83"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="124"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="27">
         <f>D28</f>
         <v>0</v>
@@ -3842,15 +3827,15 @@
         <f>G28</f>
         <v>0</v>
       </c>
-      <c r="I29" s="83"/>
+      <c r="I29" s="77"/>
       <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="124"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="82" t="s">
         <v>89</v>
       </c>
       <c r="D30" s="27">
@@ -3873,17 +3858,17 @@
         <f>H28-H29</f>
         <v>0</v>
       </c>
-      <c r="I30" s="83" t="s">
+      <c r="I30" s="77" t="s">
         <v>90</v>
       </c>
       <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="124"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="83" t="s">
         <v>92</v>
       </c>
       <c r="D31" s="26"/>
@@ -3891,15 +3876,15 @@
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
-      <c r="I31" s="83"/>
+      <c r="I31" s="77"/>
       <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="124"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="81" t="s">
         <v>94</v>
       </c>
       <c r="D32" s="26"/>
@@ -3919,15 +3904,15 @@
         <f>G31</f>
         <v>0</v>
       </c>
-      <c r="I32" s="83"/>
+      <c r="I32" s="77"/>
       <c r="J32" s="12"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="124"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="81" t="s">
         <v>96</v>
       </c>
       <c r="D33" s="27">
@@ -3950,17 +3935,17 @@
         <f>SUM(H31-H32)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="83" t="s">
+      <c r="I33" s="77" t="s">
         <v>97</v>
       </c>
       <c r="J33" s="12"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="124"/>
+      <c r="A34" s="125"/>
       <c r="B34" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="82" t="s">
         <v>99</v>
       </c>
       <c r="D34" s="27">
@@ -3983,17 +3968,17 @@
         <f>H30+H33</f>
         <v>0</v>
       </c>
-      <c r="I34" s="83" t="s">
+      <c r="I34" s="77" t="s">
         <v>100</v>
       </c>
       <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="124"/>
+      <c r="A35" s="125"/>
       <c r="B35" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="89" t="s">
+      <c r="C35" s="83" t="s">
         <v>102</v>
       </c>
       <c r="D35" s="27">
@@ -4016,18 +4001,18 @@
         <f>H20</f>
         <v>0</v>
       </c>
-      <c r="I35" s="83"/>
+      <c r="I35" s="77"/>
       <c r="J35" s="12"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="124"/>
+      <c r="A36" s="125"/>
       <c r="B36" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="27">
         <f>D35</f>
         <v>0</v>
@@ -4044,15 +4029,15 @@
         <f>G35</f>
         <v>0</v>
       </c>
-      <c r="I36" s="83"/>
+      <c r="I36" s="77"/>
       <c r="J36" s="12"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="124"/>
+      <c r="A37" s="125"/>
       <c r="B37" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="88" t="s">
+      <c r="C37" s="82" t="s">
         <v>106</v>
       </c>
       <c r="D37" s="27">
@@ -4075,19 +4060,19 @@
         <f>H35-H36</f>
         <v>0</v>
       </c>
-      <c r="I37" s="83" t="s">
+      <c r="I37" s="77" t="s">
         <v>107</v>
       </c>
       <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="125" t="s">
+      <c r="A38" s="126" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="78" t="s">
         <v>110</v>
       </c>
       <c r="D38" s="28"/>
@@ -4095,55 +4080,55 @@
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="92" t="s">
+      <c r="I38" s="86" t="s">
         <v>111</v>
       </c>
       <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="125"/>
+      <c r="A39" s="126"/>
       <c r="B39" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="28">
         <f>MIN(D27+D38, 0)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="28">
         <f>MIN(E27+E38, 0)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="28">
         <f>MIN(F27+F38, 0)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="28">
         <f>MIN(G27+G38, 0)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="28">
         <f>MIN(H27+H38, 0)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="92" t="s">
+      <c r="I39" s="86" t="s">
         <v>114</v>
       </c>
       <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="125"/>
+      <c r="A40" s="126"/>
       <c r="B40" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="83" t="s">
+      <c r="C40" s="77" t="s">
         <v>116</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="29">
-        <f>D42</f>
+        <f>D42+D40</f>
         <v>0</v>
       </c>
       <c r="F40" s="29">
@@ -4158,67 +4143,67 @@
         <f>G40+G42</f>
         <v>0</v>
       </c>
-      <c r="I40" s="92"/>
+      <c r="I40" s="86"/>
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="125"/>
+      <c r="A41" s="126"/>
       <c r="B41" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="83" t="s">
+      <c r="C41" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="28">
         <f>MIN(D24-D40, ABS(D39))</f>
         <v>0</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="28">
         <f>MIN(E24-E40, ABS(E39))</f>
         <v>0</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="28">
         <f>MIN(F24-F40, ABS(F39))</f>
         <v>0</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="28">
         <f>MIN(G24-G40, ABS(G39))</f>
         <v>0</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="28">
         <f>MIN(H24-H40, ABS(H39))</f>
         <v>0</v>
       </c>
-      <c r="I41" s="92" t="s">
+      <c r="I41" s="86" t="s">
         <v>119</v>
       </c>
       <c r="J41" s="12"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="125"/>
+      <c r="A42" s="126"/>
       <c r="B42" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="83" t="s">
+      <c r="C42" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="92" t="s">
+      <c r="I42" s="86" t="s">
         <v>122</v>
       </c>
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="125"/>
-      <c r="B43" s="32" t="s">
+      <c r="A43" s="126"/>
+      <c r="B43" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="83" t="s">
-        <v>194</v>
+      <c r="C43" s="77" t="s">
+        <v>124</v>
       </c>
       <c r="D43" s="29">
         <f>SUM(D42*0.25)</f>
@@ -4240,18 +4225,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I43" s="92" t="s">
-        <v>124</v>
+      <c r="I43" s="86" t="s">
+        <v>125</v>
       </c>
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="125"/>
-      <c r="B44" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="90" t="s">
+      <c r="A44" s="126"/>
+      <c r="B44" s="32" t="s">
         <v>126</v>
+      </c>
+      <c r="C44" s="84" t="s">
+        <v>127</v>
       </c>
       <c r="D44" s="29">
         <f>SUM(D42*0.5)</f>
@@ -4273,17 +4258,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I44" s="92" t="s">
-        <v>127</v>
+      <c r="I44" s="86" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="125"/>
-      <c r="B45" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="90" t="s">
-        <v>195</v>
+      <c r="A45" s="126"/>
+      <c r="B45" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="84" t="s">
+        <v>130</v>
       </c>
       <c r="D45" s="29">
         <f>SUM(D42*0.45)</f>
@@ -4305,209 +4290,209 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I45" s="92" t="s">
-        <v>200</v>
+      <c r="I45" s="86" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="126"/>
-      <c r="B46" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="36">
+      <c r="A46" s="127"/>
+      <c r="B46" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="35">
         <f>IF(D5&lt;D64,IF(D3&gt;=D65,D45,D43),IF(D3&gt;=D65,D45,IF(D3&gt;=D64,D44,D43)))</f>
         <v>0</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="35">
         <f>IF(D5&lt;D64,IF(E3&gt;=D65,E45,E43),IF(E3&gt;=D65,E45,IF(E3&gt;=D64,E44,E43)))</f>
         <v>0</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="35">
         <f>IF(D5&lt;D64,IF(F3&gt;=D65,F45,F43),IF(F3&gt;=D65,F45,IF(F3&gt;=D64,F44,F43)))</f>
         <v>0</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="35">
         <f>IF(D5&lt;D64,IF(G3&gt;=D65,G45,G43),IF(G3&gt;=D65,G45,IF(G3&gt;=D64,G44,G43)))</f>
         <v>0</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46" s="35">
         <f>IF(D5&lt;D64,IF(H3&gt;=D65,H45,H43),IF(H3&gt;=D65,H45,IF(H3&gt;=D64,H44,H43)))</f>
         <v>0</v>
       </c>
-      <c r="I46" s="93" t="s">
-        <v>131</v>
+      <c r="I46" s="87" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="68"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="70"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="64"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="68"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="70"/>
+        <v>136</v>
+      </c>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="64"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="68"/>
-      <c r="B49" s="151" t="s">
-        <v>202</v>
-      </c>
-      <c r="C49" s="152" t="s">
-        <v>203</v>
-      </c>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="70"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="64"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="68"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="17"/>
-      <c r="C50" s="152" t="s">
-        <v>204</v>
-      </c>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="70"/>
+      <c r="C50" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="64"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="68"/>
-      <c r="B51" s="151" t="s">
-        <v>205</v>
-      </c>
-      <c r="C51" s="152" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="70"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="64"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="68"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="70"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="64"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="68"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="70"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="64"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="70"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="64"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="70"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="64"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="68"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="70"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="64"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="68"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="70"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="64"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="68"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="70"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="64"/>
     </row>
     <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="68"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="70"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="64"/>
     </row>
     <row r="60" spans="1:9" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="38"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="37"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
@@ -4533,14 +4518,14 @@
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
       <c r="C63" s="13" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="D63" s="14"/>
       <c r="F63" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
@@ -4549,7 +4534,7 @@
       <c r="A64" s="16"/>
       <c r="B64" s="17"/>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="D64" s="14">
         <v>44496</v>
@@ -4570,13 +4555,13 @@
       <c r="A65" s="16"/>
       <c r="B65" s="17"/>
       <c r="C65" s="13" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="D65" s="14">
         <v>45748</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="F65" s="13">
         <v>0.45</v>
@@ -4591,9 +4576,9 @@
       <c r="A66" s="2"/>
       <c r="B66" s="20"/>
       <c r="C66" t="s">
-        <v>197</v>
-      </c>
-      <c r="E66" s="40">
+        <v>145</v>
+      </c>
+      <c r="E66" s="39">
         <v>44495</v>
       </c>
       <c r="F66">
@@ -4621,11 +4606,11 @@
       <c r="A69" s="2"/>
       <c r="B69" s="20"/>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D69" s="14"/>
       <c r="F69" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G69" s="13"/>
       <c r="H69" s="2"/>
@@ -4635,7 +4620,7 @@
       <c r="A70" s="2"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="D70" s="14">
         <v>44496</v>
@@ -4657,7 +4642,7 @@
         <v>45748</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="F71" s="13">
         <v>0.45</v>
@@ -4669,7 +4654,7 @@
     <row r="72" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="20"/>
-      <c r="E72" s="40">
+      <c r="E72" s="39">
         <v>44495</v>
       </c>
       <c r="F72">
@@ -7497,7 +7482,7 @@
       <c r="I328" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FGeZcCnBNtDbtzgM7GeoVwO9miMhEDStyfP9J6fkkc1SzESxkDanGcdb3apSbM5ARmQ2c4AiD9ystPExlsbZIA==" saltValue="NmGDoZFMi/3171TQcqZbZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yl+y4utNEfBPEU4jR4A0cnyn414hvkhHrJQyBFndtZ/BWmr2bGpFNVxIxBrNT77BzFrWBjEHzJ14xz5nGjx3jA==" saltValue="Jsq+aRg/Pb6aZhQbsUpWHg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="A18:A27"/>
     <mergeCell ref="A28:A37"/>
@@ -7512,17 +7497,17 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="D13:H13">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:H15 D17:H17 D27:H27 D39:H39 D41:H41 D13:H13">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:E42">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7578,770 +7563,770 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="41">
+      <c r="B1" s="40">
         <f>SUM(D57,C57)</f>
         <v>0</v>
       </c>
-      <c r="E1" s="41">
+      <c r="E1" s="40">
         <f>SUM(E57,F57)</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="42"/>
+      <c r="A2" s="149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="108"/>
+      <c r="A5" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="104" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="102"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="105"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-    </row>
-    <row r="9" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-    </row>
-    <row r="10" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-    </row>
-    <row r="11" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-    </row>
-    <row r="12" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-    </row>
-    <row r="13" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-    </row>
-    <row r="14" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-    </row>
-    <row r="15" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-    </row>
-    <row r="16" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A7" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-    </row>
-    <row r="17" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
+      <c r="B7" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-    </row>
-    <row r="18" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+      <c r="C7" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-    </row>
-    <row r="19" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="88" t="s">
+      <c r="D7" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-    </row>
-    <row r="20" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="88" t="s">
+      <c r="E7" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-    </row>
-    <row r="21" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
+      <c r="F7" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-    </row>
-    <row r="22" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
+      <c r="G7" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-    </row>
-    <row r="23" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
+      <c r="H7" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-    </row>
-    <row r="24" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89" t="s">
+    </row>
+    <row r="8" spans="1:8" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-    </row>
-    <row r="25" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+    </row>
+    <row r="9" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-    </row>
-    <row r="26" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="89" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+    </row>
+    <row r="10" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="83"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+    </row>
+    <row r="11" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="83"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+    </row>
+    <row r="12" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="83"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+    </row>
+    <row r="13" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-    </row>
-    <row r="27" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+    </row>
+    <row r="14" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+    </row>
+    <row r="15" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-    </row>
-    <row r="28" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="89" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+    </row>
+    <row r="16" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-    </row>
-    <row r="29" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-    </row>
-    <row r="30" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-    </row>
-    <row r="31" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-    </row>
-    <row r="32" spans="1:8" s="43" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="95" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+    </row>
+    <row r="17" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-    </row>
-    <row r="33" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-    </row>
-    <row r="34" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="89" t="s">
+      <c r="B17" s="88"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+    </row>
+    <row r="18" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-    </row>
-    <row r="35" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89" t="s">
+      <c r="B18" s="88"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+    </row>
+    <row r="19" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-    </row>
-    <row r="36" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89" t="s">
+      <c r="B19" s="88"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+    </row>
+    <row r="20" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-    </row>
-    <row r="37" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="89" t="s">
+      <c r="B20" s="88"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+    </row>
+    <row r="21" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-    </row>
-    <row r="38" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="89" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+    </row>
+    <row r="22" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-    </row>
-    <row r="39" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="89" t="s">
+      <c r="B22" s="88"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+    </row>
+    <row r="23" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-    </row>
-    <row r="40" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="89" t="s">
+      <c r="B23" s="88"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+    </row>
+    <row r="24" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="94"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-    </row>
-    <row r="41" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="89" t="s">
+      <c r="B24" s="88"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+    </row>
+    <row r="25" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-    </row>
-    <row r="42" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="89" t="s">
+      <c r="B25" s="88"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+    </row>
+    <row r="26" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-    </row>
-    <row r="43" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="89" t="s">
+      <c r="B26" s="88"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+    </row>
+    <row r="27" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="B43" s="94"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-    </row>
-    <row r="44" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="89" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+    </row>
+    <row r="28" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="B44" s="94"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-    </row>
-    <row r="45" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="89" t="s">
+      <c r="B28" s="88"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+    </row>
+    <row r="29" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="83"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+    </row>
+    <row r="30" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="83"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+    </row>
+    <row r="31" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="83"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+    </row>
+    <row r="32" spans="1:8" s="42" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="B45" s="94"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-    </row>
-    <row r="46" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="89" t="s">
+      <c r="B32" s="88"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+    </row>
+    <row r="33" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="88"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+    </row>
+    <row r="34" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="B46" s="94"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-    </row>
-    <row r="47" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="89"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-    </row>
-    <row r="48" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="89"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-    </row>
-    <row r="49" spans="1:8" s="43" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="96" t="s">
+      <c r="B34" s="88"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+    </row>
+    <row r="35" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="94"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-    </row>
-    <row r="50" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="88" t="s">
+      <c r="B35" s="88"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+    </row>
+    <row r="36" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="94"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-    </row>
-    <row r="51" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="88" t="s">
+      <c r="B36" s="88"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+    </row>
+    <row r="37" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="B51" s="94"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-    </row>
-    <row r="52" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="88" t="s">
+      <c r="B37" s="88"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+    </row>
+    <row r="38" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="B52" s="94"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-    </row>
-    <row r="53" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="88" t="s">
+      <c r="B38" s="88"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+    </row>
+    <row r="39" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="B53" s="94"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="89"/>
-    </row>
-    <row r="54" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="88" t="s">
+      <c r="B39" s="88"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+    </row>
+    <row r="40" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-    </row>
-    <row r="55" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="88" t="s">
+      <c r="B40" s="88"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+    </row>
+    <row r="41" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="B55" s="94"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="89"/>
-    </row>
-    <row r="56" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="89"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="89"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+    </row>
+    <row r="42" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="88"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+    </row>
+    <row r="43" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="88"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+    </row>
+    <row r="44" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="88"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+    </row>
+    <row r="45" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="88"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+    </row>
+    <row r="46" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="88"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+    </row>
+    <row r="47" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="83"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+    </row>
+    <row r="48" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="83"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+    </row>
+    <row r="49" spans="1:8" s="42" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="88"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+    </row>
+    <row r="50" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="88"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+    </row>
+    <row r="51" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="88"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+    </row>
+    <row r="52" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="88"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+    </row>
+    <row r="53" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" s="88"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+    </row>
+    <row r="54" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="88"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+    </row>
+    <row r="55" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" s="88"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+    </row>
+    <row r="56" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="83"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
     </row>
     <row r="57" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="B57" s="52">
+      <c r="A57" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" s="51">
         <f>SUBTOTAL(109,Table2[Total expenditure])</f>
         <v>0</v>
       </c>
-      <c r="C57" s="52">
+      <c r="C57" s="51">
         <f>SUBTOTAL(109,Table2[Non Core Expenditure])</f>
         <v>0</v>
       </c>
-      <c r="D57" s="52">
+      <c r="D57" s="51">
         <f>SUBTOTAL(109,Table2[Total Core Expenditure])</f>
         <v>0</v>
       </c>
-      <c r="E57" s="52">
+      <c r="E57" s="51">
         <f>SUBTOTAL(109,Table2[Total UK/EEA Core Expenditure])</f>
         <v>0</v>
       </c>
-      <c r="F57" s="52">
+      <c r="F57" s="51">
         <f>SUM(Table2[Total Non UK/EEA Core Expenditure])</f>
         <v>0</v>
       </c>
-      <c r="G57" s="52">
+      <c r="G57" s="51">
         <f>SUM(Table2[[Apportionment basis ]])</f>
         <v>0</v>
       </c>
-      <c r="H57" s="53"/>
-    </row>
-    <row r="58" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="97" t="s">
-        <v>190</v>
-      </c>
-      <c r="B58" s="98"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="101"/>
+      <c r="H57" s="52"/>
+    </row>
+    <row r="58" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" s="92"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="95"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="B59" s="55">
+      <c r="A59" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" s="54">
         <f>Table2[[#Totals],[Total expenditure]]-B58</f>
         <v>0</v>
       </c>
-      <c r="C59" s="55">
+      <c r="C59" s="54">
         <f>Table2[[#Totals],[Non Core Expenditure]]-C58</f>
         <v>0</v>
       </c>
-      <c r="D59" s="55">
+      <c r="D59" s="54">
         <f>Table2[[#Totals],[Total Core Expenditure]]-D58</f>
         <v>0</v>
       </c>
-      <c r="E59" s="55">
+      <c r="E59" s="54">
         <f>Table2[[#Totals],[Total UK/EEA Core Expenditure]]-E58</f>
         <v>0</v>
       </c>
-      <c r="F59" s="55">
+      <c r="F59" s="54">
         <f>Table2[[#Totals],[Total Non UK/EEA Core Expenditure]]-F58</f>
         <v>0</v>
       </c>
-      <c r="G59" s="55">
+      <c r="G59" s="54">
         <f>Table2[[#Totals],[Apportionment basis ]]-G58</f>
         <v>0</v>
       </c>
-      <c r="H59" s="55"/>
+      <c r="H59" s="54"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="44"/>
+      <c r="A117" s="43"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="emZvTExc2b+G+WTcubThBizblmuHg2VS9vqkR7PvbsYnWAT8S7xJwJpAL2OCvoBUXVNb4ueAaoiif6QLyXpbbw==" saltValue="x5G7UgDnBeE092gRBKsNxA==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0"/>
@@ -8353,12 +8338,12 @@
     <mergeCell ref="F4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="notEqual">
       <formula>$B$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="notEqual">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8379,6 +8364,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43f61a81-08e4-450f-9189-2143ec144f36">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Notes xmlns="43f61a81-08e4-450f-9189-2143ec144f36" xsi:nil="true"/>
+    <Description xmlns="43f61a81-08e4-450f-9189-2143ec144f36" xsi:nil="true"/>
+    <Restricted_x003f_ xmlns="43f61a81-08e4-450f-9189-2143ec144f36">false</Restricted_x003f_>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Date xmlns="43f61a81-08e4-450f-9189-2143ec144f36" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="43f61a81-08e4-450f-9189-2143ec144f36" xsi:nil="true"/>
+    <_x0077_gy3 xmlns="43f61a81-08e4-450f-9189-2143ec144f36" xsi:nil="true"/>
+    <TaxCatchAll xmlns="229aab0b-7173-4521-96dd-bb43636f532e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009FADE49AA34772468ECB203A2ABF3A84" ma:contentTypeVersion="31" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f4d253bc20ba4df7ac9ec746ac7562d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="43f61a81-08e4-450f-9189-2143ec144f36" xmlns:ns3="229aab0b-7173-4521-96dd-bb43636f532e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b47f16e74ed1ec9b37661be9f25fead" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8690,35 +8703,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43f61a81-08e4-450f-9189-2143ec144f36">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Notes xmlns="43f61a81-08e4-450f-9189-2143ec144f36" xsi:nil="true"/>
-    <Description xmlns="43f61a81-08e4-450f-9189-2143ec144f36" xsi:nil="true"/>
-    <Restricted_x003f_ xmlns="43f61a81-08e4-450f-9189-2143ec144f36">false</Restricted_x003f_>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Date xmlns="43f61a81-08e4-450f-9189-2143ec144f36" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="43f61a81-08e4-450f-9189-2143ec144f36" xsi:nil="true"/>
-    <_x0077_gy3 xmlns="43f61a81-08e4-450f-9189-2143ec144f36" xsi:nil="true"/>
-    <TaxCatchAll xmlns="229aab0b-7173-4521-96dd-bb43636f532e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD92D31-A5A2-4127-86E0-785EAA7B35DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="43f61a81-08e4-450f-9189-2143ec144f36"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="229aab0b-7173-4521-96dd-bb43636f532e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A2D1D8-6EDC-464E-BB1C-194E0E80EEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C85186A-EE49-4768-9CF2-95E12057F84F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8736,30 +8741,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD92D31-A5A2-4127-86E0-785EAA7B35DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="229aab0b-7173-4521-96dd-bb43636f532e"/>
-    <ds:schemaRef ds:uri="43f61a81-08e4-450f-9189-2143ec144f36"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A2D1D8-6EDC-464E-BB1C-194E0E80EEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>